--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_1_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_1_bus_resonant.xlsx
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.04659506804995</v>
+        <v>1.046595068050001</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523819</v>
+        <v>0.8909260930523315</v>
       </c>
       <c r="P2">
-        <v>1.056652021165216</v>
+        <v>1.056652021165259</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033979</v>
+        <v>25.18850204033663</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314906</v>
+        <v>-89.28600430314988</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071883015</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.75994487424888</v>
+        <v>4.759944874248627</v>
       </c>
       <c r="D3">
-        <v>4.75994487424888</v>
+        <v>4.759944874248627</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950741</v>
+        <v>54.96310908950449</v>
       </c>
       <c r="G3">
-        <v>54.96310908950741</v>
+        <v>54.96310908950449</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306217</v>
+        <v>6.243271679683529</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794859</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063856</v>
+        <v>0.1077319054660729</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694746599</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131887</v>
+        <v>0.1077319054045952</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694657498</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020817</v>
+        <v>0.9526279648021428</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.952627964802519</v>
+        <v>0.9526279648025839</v>
       </c>
       <c r="Q3">
-        <v>-4.004914026730602E-12</v>
+        <v>-4.46154022593884E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999901</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753104</v>
+        <v>0.9526279647753716</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.95262796482929</v>
+        <v>0.9526279648293553</v>
       </c>
       <c r="Q4">
-        <v>1.415114289078602E-09</v>
+        <v>1.414662753011575E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.9999999985762</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663868</v>
+        <v>0.9526279647664478</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382138</v>
+        <v>0.9526279648382792</v>
       </c>
       <c r="Q5">
-        <v>1.888149601269896E-09</v>
+        <v>1.887703269660798E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981034</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663868</v>
+        <v>0.9526279647664477</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382138</v>
+        <v>0.9526279648382791</v>
       </c>
       <c r="Q6">
-        <v>1.888142666587713E-09</v>
+        <v>1.887694954331136E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095305273568648</v>
+        <v>1.095305273568644</v>
       </c>
       <c r="O2">
-        <v>1.018983908531544</v>
+        <v>1.018983908531511</v>
       </c>
       <c r="P2">
         <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.7035690760488</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249681</v>
       </c>
       <c r="S2">
-        <v>151.4402860785753</v>
+        <v>151.4402860785762</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1145,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753544</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753544</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391912</v>
+        <v>23.22049548391871</v>
       </c>
       <c r="G3">
-        <v>23.22049548391912</v>
+        <v>23.22049548391871</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306217</v>
+        <v>6.243271679683529</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794859</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063856</v>
+        <v>0.1077319054660729</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694746599</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131887</v>
+        <v>0.1077319054045952</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694657498</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.10749862757392</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765321</v>
+        <v>0.7109795688764999</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381398</v>
+        <v>0.9171656569381463</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293677</v>
+        <v>17.92198046293599</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.5279586928743</v>
       </c>
       <c r="S3">
-        <v>158.1868465769573</v>
+        <v>158.1868465769585</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561351</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760392</v>
+        <v>0.7109795688760071</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531269</v>
+        <v>0.9171656569531336</v>
       </c>
       <c r="Q4">
-        <v>17.9219804633674</v>
+        <v>17.92198046336663</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.5279586904448</v>
       </c>
       <c r="S4">
-        <v>158.1868465770594</v>
+        <v>158.1868465770605</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557161</v>
       </c>
       <c r="O5">
-        <v>0.710979568875875</v>
+        <v>0.7109795688758428</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581227</v>
+        <v>0.9171656569581292</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351094</v>
+        <v>17.92198046351017</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896353</v>
+        <v>-106.527958689635</v>
       </c>
       <c r="S5">
-        <v>158.1868465770934</v>
+        <v>158.1868465770945</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557161</v>
       </c>
       <c r="O6">
-        <v>0.710979568875875</v>
+        <v>0.7109795688758428</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581227</v>
+        <v>0.9171656569581293</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351094</v>
+        <v>17.92198046351017</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896353</v>
+        <v>-106.527958689635</v>
       </c>
       <c r="S6">
-        <v>158.1868465770934</v>
+        <v>158.1868465770945</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095305273568648</v>
+        <v>1.095305273568644</v>
       </c>
       <c r="O2">
-        <v>1.018983908531544</v>
+        <v>1.018983908531511</v>
       </c>
       <c r="P2">
         <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604971</v>
+        <v>27.7035690760488</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249681</v>
       </c>
       <c r="S2">
-        <v>151.4402860785753</v>
+        <v>151.4402860785762</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1512,55 +1512,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753544</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753544</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391912</v>
+        <v>23.22049548391871</v>
       </c>
       <c r="G3">
-        <v>23.22049548391912</v>
+        <v>23.22049548391871</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306217</v>
+        <v>6.243271679683529</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794859</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063856</v>
+        <v>0.1077319054660729</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694746599</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131887</v>
+        <v>0.1077319054045952</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694657498</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.10749862757392</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765321</v>
+        <v>0.7109795688764999</v>
       </c>
       <c r="P3">
-        <v>0.9171656569381398</v>
+        <v>0.9171656569381463</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293677</v>
+        <v>17.92198046293599</v>
       </c>
       <c r="R3">
-        <v>-106.5279586928746</v>
+        <v>-106.5279586928743</v>
       </c>
       <c r="S3">
-        <v>158.1868465769573</v>
+        <v>158.1868465769585</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561351</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760392</v>
+        <v>0.7109795688760071</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531269</v>
+        <v>0.9171656569531336</v>
       </c>
       <c r="Q4">
-        <v>17.9219804633674</v>
+        <v>17.92198046336663</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.5279586904448</v>
       </c>
       <c r="S4">
-        <v>158.1868465770594</v>
+        <v>158.1868465770605</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557161</v>
       </c>
       <c r="O5">
-        <v>0.710979568875875</v>
+        <v>0.7109795688758428</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581227</v>
+        <v>0.9171656569581292</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351094</v>
+        <v>17.92198046351017</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896353</v>
+        <v>-106.527958689635</v>
       </c>
       <c r="S5">
-        <v>158.1868465770934</v>
+        <v>158.1868465770945</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557161</v>
       </c>
       <c r="O6">
-        <v>0.710979568875875</v>
+        <v>0.7109795688758428</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581227</v>
+        <v>0.9171656569581293</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351094</v>
+        <v>17.92198046351017</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896353</v>
+        <v>-106.527958689635</v>
       </c>
       <c r="S6">
-        <v>158.1868465770934</v>
+        <v>158.1868465770945</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952003</v>
       </c>
       <c r="O2">
-        <v>0.793667423273948</v>
+        <v>0.7936674232738951</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309887947</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610129</v>
+        <v>24.75158797610183</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623896942</v>
       </c>
       <c r="S2">
-        <v>155.5173957043593</v>
+        <v>155.517395704362</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661708</v>
       </c>
       <c r="D3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661708</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017935</v>
+        <v>47.7316782001769</v>
       </c>
       <c r="G3">
-        <v>47.73167820017935</v>
+        <v>47.7316782001769</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276101</v>
+        <v>11.97826529986876</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275487</v>
+        <v>-1164.101951979717</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949912</v>
+        <v>0.1153518595378999</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540804455</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710855</v>
+        <v>0.115351859463364</v>
       </c>
       <c r="M3">
-        <v>2.416397540675743</v>
+        <v>2.416397540689472</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841221</v>
+        <v>0.8660254037841058</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841821</v>
+        <v>0.8660254037841659</v>
       </c>
       <c r="Q3">
-        <v>3.078478612609798E-11</v>
+        <v>3.195553230169205E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999626</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597849</v>
+        <v>0.8660254037597684</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.8660254038085033</v>
       </c>
       <c r="Q4">
-        <v>2.755486501488598E-09</v>
+        <v>2.756661664912327E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972379</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516725</v>
+        <v>0.866025403751656</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166322</v>
+        <v>0.8660254038166157</v>
       </c>
       <c r="Q5">
-        <v>3.663710893335827E-09</v>
+        <v>3.664886612047624E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963297</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516725</v>
+        <v>0.866025403751656</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166322</v>
+        <v>0.8660254038166157</v>
       </c>
       <c r="Q6">
-        <v>3.663725632241488E-09</v>
+        <v>3.664896624835029E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963297</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952003</v>
       </c>
       <c r="O2">
-        <v>0.793667423273948</v>
+        <v>0.7936674232738951</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309887947</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610129</v>
+        <v>24.75158797610183</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623896942</v>
       </c>
       <c r="S2">
-        <v>155.5173957043593</v>
+        <v>155.517395704362</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661708</v>
       </c>
       <c r="D3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661708</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017935</v>
+        <v>47.7316782001769</v>
       </c>
       <c r="G3">
-        <v>47.73167820017935</v>
+        <v>47.7316782001769</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276101</v>
+        <v>11.97826529986876</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275487</v>
+        <v>-1164.101951979717</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949912</v>
+        <v>0.1153518595378999</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540804455</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710855</v>
+        <v>0.115351859463364</v>
       </c>
       <c r="M3">
-        <v>2.416397540675743</v>
+        <v>2.416397540689472</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841221</v>
+        <v>0.8660254037841058</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841821</v>
+        <v>0.8660254037841659</v>
       </c>
       <c r="Q3">
-        <v>3.078478612609798E-11</v>
+        <v>3.195553230169205E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999626</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597849</v>
+        <v>0.8660254037597684</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.8660254038085033</v>
       </c>
       <c r="Q4">
-        <v>2.755486501488598E-09</v>
+        <v>2.756661664912327E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972379</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516725</v>
+        <v>0.866025403751656</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166322</v>
+        <v>0.8660254038166157</v>
       </c>
       <c r="Q5">
-        <v>3.663710893335827E-09</v>
+        <v>3.664886612047624E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963297</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516725</v>
+        <v>0.866025403751656</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166322</v>
+        <v>0.8660254038166157</v>
       </c>
       <c r="Q6">
-        <v>3.663725632241488E-09</v>
+        <v>3.664896624835029E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963277</v>
+        <v>179.9999999963297</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618445</v>
+        <v>0.9949806626618237</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399002</v>
+        <v>0.9175617791398677</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021194</v>
+        <v>0.9648695716021131</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412386</v>
+        <v>27.43727595412438</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105334826</v>
       </c>
       <c r="S2">
-        <v>151.6304298035849</v>
+        <v>151.6304298035867</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2613,55 +2613,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210633</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210633</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545518</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545518</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276101</v>
+        <v>11.97826529986876</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275487</v>
+        <v>-1164.101951979717</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949912</v>
+        <v>0.1153518595378999</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540804455</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710855</v>
+        <v>0.115351859463364</v>
       </c>
       <c r="M3">
-        <v>2.416397540675743</v>
+        <v>2.416397540689472</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264092</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823899</v>
+        <v>0.6348876951823577</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776822</v>
+        <v>0.8307352055776827</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536514</v>
+        <v>17.57011779536572</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758097</v>
+        <v>-106.9885815758073</v>
       </c>
       <c r="S3">
-        <v>158.5647675412735</v>
+        <v>158.5647675412754</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251216</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946469</v>
+        <v>0.634887695194615</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979546</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629441</v>
+        <v>17.57011779629498</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722257</v>
+        <v>-106.9885815722233</v>
       </c>
       <c r="S4">
-        <v>158.5647675409582</v>
+        <v>158.5647675409601</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246923</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987007</v>
       </c>
       <c r="P5">
-        <v>0.830735205604712</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660416</v>
+        <v>17.57011779660474</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710286</v>
       </c>
       <c r="S5">
-        <v>158.5647675408531</v>
+        <v>158.5647675408551</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246923</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987007</v>
       </c>
       <c r="P6">
-        <v>0.830735205604712</v>
+        <v>0.8307352056047127</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660416</v>
+        <v>17.57011779660474</v>
       </c>
       <c r="R6">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710286</v>
       </c>
       <c r="S6">
-        <v>158.5647675408531</v>
+        <v>158.564767540855</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618445</v>
+        <v>0.9949806626618237</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399002</v>
+        <v>0.9175617791398677</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021194</v>
+        <v>0.9648695716021131</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412386</v>
+        <v>27.43727595412438</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105334826</v>
       </c>
       <c r="S2">
-        <v>151.6304298035849</v>
+        <v>151.6304298035867</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2980,55 +2980,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210633</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210633</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545518</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545518</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276101</v>
+        <v>11.97826529986876</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275487</v>
+        <v>-1164.101951979717</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949912</v>
+        <v>0.1153518595378999</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540804455</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710855</v>
+        <v>0.115351859463364</v>
       </c>
       <c r="M3">
-        <v>2.416397540675743</v>
+        <v>2.416397540689472</v>
       </c>
       <c r="N3">
-        <v>1.005693895264115</v>
+        <v>1.005693895264092</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823899</v>
+        <v>0.6348876951823577</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776822</v>
+        <v>0.8307352055776827</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536514</v>
+        <v>17.57011779536572</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758097</v>
+        <v>-106.9885815758073</v>
       </c>
       <c r="S3">
-        <v>158.5647675412735</v>
+        <v>158.5647675412754</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251216</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946469</v>
+        <v>0.634887695194615</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979546</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>17.57011779629441</v>
+        <v>17.57011779629498</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722257</v>
+        <v>-106.9885815722233</v>
       </c>
       <c r="S4">
-        <v>158.5647675409582</v>
+        <v>158.5647675409601</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246923</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987007</v>
       </c>
       <c r="P5">
-        <v>0.830735205604712</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660416</v>
+        <v>17.57011779660474</v>
       </c>
       <c r="R5">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710286</v>
       </c>
       <c r="S5">
-        <v>158.5647675408531</v>
+        <v>158.5647675408551</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246923</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987007</v>
       </c>
       <c r="P6">
-        <v>0.830735205604712</v>
+        <v>0.8307352056047127</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660416</v>
+        <v>17.57011779660474</v>
       </c>
       <c r="R6">
-        <v>-106.988581571031</v>
+        <v>-106.9885815710286</v>
       </c>
       <c r="S6">
-        <v>158.5647675408531</v>
+        <v>158.564767540855</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9760764580876861</v>
+        <v>1.100584781465465</v>
       </c>
       <c r="O2">
-        <v>1.100000023851785</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>0.9669757037843513</v>
+        <v>1.100660682754467</v>
       </c>
       <c r="Q2">
-        <v>34.86992588916964</v>
+        <v>29.9778614593515</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.9115991759669</v>
+        <v>150.0152896286855</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.909848175428157</v>
+        <v>0.03286233503158658</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>79.78805408285781</v>
+        <v>0.3794615595337237</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306655</v>
+        <v>6.24327167968451</v>
       </c>
       <c r="I3">
-        <v>0.8917025845793021</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.107731905317869</v>
+        <v>0.1077319051882242</v>
       </c>
       <c r="K3">
-        <v>2.30843869464295</v>
+        <v>2.308438694636816</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132364</v>
+        <v>0.1077319054302972</v>
       </c>
       <c r="M3">
-        <v>2.308438694642828</v>
+        <v>2.308438694642478</v>
       </c>
       <c r="N3">
-        <v>0.5711070883988383</v>
+        <v>1.10318685011773</v>
       </c>
       <c r="O3">
-        <v>1.100000023844382</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P3">
-        <v>0.5713137067019781</v>
+        <v>1.103384400964589</v>
       </c>
       <c r="Q3">
-        <v>74.33438202440516</v>
+        <v>29.89261634320194</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>105.6598069810126</v>
+        <v>150.089543465434</v>
       </c>
       <c r="T3">
-        <v>6.909848175428156</v>
+        <v>0.03286233503158657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5711070884455095</v>
+        <v>1.103186850117494</v>
       </c>
       <c r="O4">
-        <v>1.100000023844383</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P4">
-        <v>0.5713137066737974</v>
+        <v>1.103384400964528</v>
       </c>
       <c r="Q4">
-        <v>74.3343820221499</v>
+        <v>29.89261634319846</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>105.6598069853718</v>
+        <v>150.0895434654217</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5711070884610666</v>
+        <v>1.103186850117414</v>
       </c>
       <c r="O5">
-        <v>1.100000023844383</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P5">
-        <v>0.5713137066644036</v>
+        <v>1.103384400964508</v>
       </c>
       <c r="Q5">
-        <v>74.33438202139817</v>
+        <v>29.8926163431973</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>105.6598069868249</v>
+        <v>150.0895434654176</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5711070884610665</v>
+        <v>1.103186850117414</v>
       </c>
       <c r="O6">
-        <v>1.100000023844383</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P6">
-        <v>0.5713137066644036</v>
+        <v>1.103384400964508</v>
       </c>
       <c r="Q6">
-        <v>74.33438202139818</v>
+        <v>29.8926163431973</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999595</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>105.6598069868249</v>
+        <v>150.0895434654176</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9760764580876861</v>
+        <v>1.100584781465465</v>
       </c>
       <c r="O2">
-        <v>1.100000023851785</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>0.9669757037843513</v>
+        <v>1.100660682754467</v>
       </c>
       <c r="Q2">
-        <v>34.86992588916964</v>
+        <v>29.9778614593515</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.9115991759669</v>
+        <v>150.0152896286855</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.909848175428157</v>
+        <v>0.03286233503158658</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>79.78805408285781</v>
+        <v>0.3794615595337237</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306655</v>
+        <v>6.24327167968451</v>
       </c>
       <c r="I3">
-        <v>0.8917025845793021</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.107731905317869</v>
+        <v>0.1077319051882242</v>
       </c>
       <c r="K3">
-        <v>2.30843869464295</v>
+        <v>2.308438694636816</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132364</v>
+        <v>0.1077319054302972</v>
       </c>
       <c r="M3">
-        <v>2.308438694642828</v>
+        <v>2.308438694642478</v>
       </c>
       <c r="N3">
-        <v>0.5711070883988383</v>
+        <v>1.10318685011773</v>
       </c>
       <c r="O3">
-        <v>1.100000023844382</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P3">
-        <v>0.5713137067019781</v>
+        <v>1.103384400964589</v>
       </c>
       <c r="Q3">
-        <v>74.33438202440516</v>
+        <v>29.89261634320194</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>105.6598069810126</v>
+        <v>150.089543465434</v>
       </c>
       <c r="T3">
-        <v>6.909848175428156</v>
+        <v>0.03286233503158657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5711070884455095</v>
+        <v>1.103186850117494</v>
       </c>
       <c r="O4">
-        <v>1.100000023844383</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P4">
-        <v>0.5713137066737974</v>
+        <v>1.103384400964528</v>
       </c>
       <c r="Q4">
-        <v>74.3343820221499</v>
+        <v>29.89261634319846</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>105.6598069853718</v>
+        <v>150.0895434654217</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5711070884610666</v>
+        <v>1.103186850117414</v>
       </c>
       <c r="O5">
-        <v>1.100000023844383</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P5">
-        <v>0.5713137066644036</v>
+        <v>1.103384400964508</v>
       </c>
       <c r="Q5">
-        <v>74.33438202139817</v>
+        <v>29.8926163431973</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>105.6598069868249</v>
+        <v>150.0895434654176</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5711070884610665</v>
+        <v>1.103186850117414</v>
       </c>
       <c r="O6">
-        <v>1.100000023844383</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P6">
-        <v>0.5713137066644036</v>
+        <v>1.103384400964508</v>
       </c>
       <c r="Q6">
-        <v>74.33438202139818</v>
+        <v>29.8926163431973</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999595</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>105.6598069868249</v>
+        <v>150.0895434654176</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.067208960576893</v>
+        <v>1.100586627209627</v>
       </c>
       <c r="O2">
-        <v>1.100000023844326</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.084448147613342</v>
+        <v>1.100673094361237</v>
       </c>
       <c r="Q2">
-        <v>29.97118733686362</v>
+        <v>29.97717063840395</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4852645396447</v>
+        <v>150.0150270278859</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.490708671254766</v>
+        <v>0.03328769280465657</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.21322105264497</v>
+        <v>0.3843731680294008</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306655</v>
+        <v>6.24327167968451</v>
       </c>
       <c r="I3">
-        <v>0.8917025845793021</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.107731905317869</v>
+        <v>0.1077319051882242</v>
       </c>
       <c r="K3">
-        <v>2.30843869464295</v>
+        <v>2.308438694636816</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132364</v>
+        <v>0.1077319054302972</v>
       </c>
       <c r="M3">
-        <v>2.308438694642828</v>
+        <v>2.308438694642478</v>
       </c>
       <c r="N3">
-        <v>0.9282437459573998</v>
+        <v>1.103200329632125</v>
       </c>
       <c r="O3">
-        <v>1.100000023844591</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.036054827732469</v>
+        <v>1.103450871886619</v>
       </c>
       <c r="Q3">
-        <v>29.26272628975795</v>
+        <v>29.88902944996981</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>141.4079909551121</v>
+        <v>150.0883446012654</v>
       </c>
       <c r="T3">
-        <v>1.490708671254766</v>
+        <v>0.03328769280465656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9282437459640751</v>
+        <v>1.103200329631884</v>
       </c>
       <c r="O4">
-        <v>1.100000023844591</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>1.036054827726684</v>
+        <v>1.103450871886554</v>
       </c>
       <c r="Q4">
-        <v>29.26272629031119</v>
+        <v>29.88902944996645</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>141.4079909556409</v>
+        <v>150.088344601253</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9282437459663004</v>
+        <v>1.103200329631804</v>
       </c>
       <c r="O5">
-        <v>1.100000023844591</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.036054827724755</v>
+        <v>1.103450871886532</v>
       </c>
       <c r="Q5">
-        <v>29.2627262904956</v>
+        <v>29.88902944996533</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>141.4079909558171</v>
+        <v>150.0883446012488</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9282437459663004</v>
+        <v>1.103200329631804</v>
       </c>
       <c r="O6">
-        <v>1.100000023844591</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>1.036054827724755</v>
+        <v>1.103450871886532</v>
       </c>
       <c r="Q6">
-        <v>29.2627262904956</v>
+        <v>29.88902944996534</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>141.4079909558171</v>
+        <v>150.0883446012488</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.067208960576893</v>
+        <v>1.100586627209627</v>
       </c>
       <c r="O2">
-        <v>1.100000023844326</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.084448147613342</v>
+        <v>1.100673094361237</v>
       </c>
       <c r="Q2">
-        <v>29.97118733686362</v>
+        <v>29.97717063840395</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4852645396447</v>
+        <v>150.0150270278859</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.490708671254766</v>
+        <v>0.03328769280465657</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.21322105264497</v>
+        <v>0.3843731680294008</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306655</v>
+        <v>6.24327167968451</v>
       </c>
       <c r="I3">
-        <v>0.8917025845793021</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.107731905317869</v>
+        <v>0.1077319051882242</v>
       </c>
       <c r="K3">
-        <v>2.30843869464295</v>
+        <v>2.308438694636816</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132364</v>
+        <v>0.1077319054302972</v>
       </c>
       <c r="M3">
-        <v>2.308438694642828</v>
+        <v>2.308438694642478</v>
       </c>
       <c r="N3">
-        <v>0.9282437459573998</v>
+        <v>1.103200329632125</v>
       </c>
       <c r="O3">
-        <v>1.100000023844591</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.036054827732469</v>
+        <v>1.103450871886619</v>
       </c>
       <c r="Q3">
-        <v>29.26272628975795</v>
+        <v>29.88902944996981</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>141.4079909551121</v>
+        <v>150.0883446012654</v>
       </c>
       <c r="T3">
-        <v>1.490708671254766</v>
+        <v>0.03328769280465656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9282437459640751</v>
+        <v>1.103200329631884</v>
       </c>
       <c r="O4">
-        <v>1.100000023844591</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>1.036054827726684</v>
+        <v>1.103450871886554</v>
       </c>
       <c r="Q4">
-        <v>29.26272629031119</v>
+        <v>29.88902944996645</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>141.4079909556409</v>
+        <v>150.088344601253</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9282437459663004</v>
+        <v>1.103200329631804</v>
       </c>
       <c r="O5">
-        <v>1.100000023844591</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>1.036054827724755</v>
+        <v>1.103450871886532</v>
       </c>
       <c r="Q5">
-        <v>29.2627262904956</v>
+        <v>29.88902944996533</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>141.4079909558171</v>
+        <v>150.0883446012488</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9282437459663004</v>
+        <v>1.103200329631804</v>
       </c>
       <c r="O6">
-        <v>1.100000023844591</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>1.036054827724755</v>
+        <v>1.103450871886532</v>
       </c>
       <c r="Q6">
-        <v>29.2627262904956</v>
+        <v>29.88902944996534</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>141.4079909558171</v>
+        <v>150.0883446012488</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8784877852782748</v>
+        <v>1.000602020524954</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996155</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>0.8696777773664127</v>
+        <v>1.000684120832942</v>
       </c>
       <c r="Q2">
-        <v>35.3047799300286</v>
+        <v>29.97466859984601</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.5233070652903</v>
+        <v>150.0171820865343</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.971983414500374</v>
+        <v>0.0298801145572717</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>68.95852463915544</v>
+        <v>0.3450258436611535</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276734</v>
+        <v>11.97826529986831</v>
       </c>
       <c r="I3">
-        <v>0.9610933812273456</v>
+        <v>-1164.101951979719</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909653</v>
+        <v>0.1153518593933089</v>
       </c>
       <c r="K3">
-        <v>2.416397540675817</v>
+        <v>2.416397540669457</v>
       </c>
       <c r="L3">
-        <v>0.115351859471143</v>
+        <v>0.1153518594871006</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675652</v>
       </c>
       <c r="N3">
-        <v>0.5199773961133449</v>
+        <v>1.003021497500245</v>
       </c>
       <c r="O3">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P3">
-        <v>0.5204858233912634</v>
+        <v>1.003231186897413</v>
       </c>
       <c r="Q3">
-        <v>73.96052963529438</v>
+        <v>29.8865411520224</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>106.0233806110438</v>
+        <v>150.0926278661476</v>
       </c>
       <c r="T3">
-        <v>5.971983414500373</v>
+        <v>0.0298801145572717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5199773961635932</v>
+        <v>1.003021497499899</v>
       </c>
       <c r="O4">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P4">
-        <v>0.5204858233738682</v>
+        <v>1.003231186897225</v>
       </c>
       <c r="Q4">
-        <v>73.96052963006595</v>
+        <v>29.8865411520233</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999601</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>106.0233806184067</v>
+        <v>150.092627866131</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5199773961803428</v>
+        <v>1.003021497499784</v>
       </c>
       <c r="O5">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P5">
-        <v>0.5204858233680696</v>
+        <v>1.003231186897163</v>
       </c>
       <c r="Q5">
-        <v>73.96052962832317</v>
+        <v>29.88654115202361</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999602</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>106.023380620861</v>
+        <v>150.0926278661255</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5199773961803428</v>
+        <v>1.003021497499784</v>
       </c>
       <c r="O6">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P6">
-        <v>0.5204858233680697</v>
+        <v>1.003231186897163</v>
       </c>
       <c r="Q6">
-        <v>73.96052962832316</v>
+        <v>29.8865411520236</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999602</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>106.023380620861</v>
+        <v>150.0926278661255</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8784877852782748</v>
+        <v>1.000602020524954</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996155</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>0.8696777773664127</v>
+        <v>1.000684120832942</v>
       </c>
       <c r="Q2">
-        <v>35.3047799300286</v>
+        <v>29.97466859984601</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.5233070652903</v>
+        <v>150.0171820865343</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.971983414500374</v>
+        <v>0.0298801145572717</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>68.95852463915544</v>
+        <v>0.3450258436611535</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276734</v>
+        <v>11.97826529986831</v>
       </c>
       <c r="I3">
-        <v>0.9610933812273456</v>
+        <v>-1164.101951979719</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909653</v>
+        <v>0.1153518593933089</v>
       </c>
       <c r="K3">
-        <v>2.416397540675817</v>
+        <v>2.416397540669457</v>
       </c>
       <c r="L3">
-        <v>0.115351859471143</v>
+        <v>0.1153518594871006</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675652</v>
       </c>
       <c r="N3">
-        <v>0.5199773961133449</v>
+        <v>1.003021497500245</v>
       </c>
       <c r="O3">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P3">
-        <v>0.5204858233912634</v>
+        <v>1.003231186897413</v>
       </c>
       <c r="Q3">
-        <v>73.96052963529438</v>
+        <v>29.8865411520224</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>106.0233806110438</v>
+        <v>150.0926278661476</v>
       </c>
       <c r="T3">
-        <v>5.971983414500373</v>
+        <v>0.0298801145572717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5199773961635932</v>
+        <v>1.003021497499899</v>
       </c>
       <c r="O4">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P4">
-        <v>0.5204858233738682</v>
+        <v>1.003231186897225</v>
       </c>
       <c r="Q4">
-        <v>73.96052963006595</v>
+        <v>29.8865411520233</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999601</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>106.0233806184067</v>
+        <v>150.092627866131</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5199773961803428</v>
+        <v>1.003021497499784</v>
       </c>
       <c r="O5">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P5">
-        <v>0.5204858233680696</v>
+        <v>1.003231186897163</v>
       </c>
       <c r="Q5">
-        <v>73.96052962832317</v>
+        <v>29.88654115202361</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999602</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>106.023380620861</v>
+        <v>150.0926278661255</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5199773961803428</v>
+        <v>1.003021497499784</v>
       </c>
       <c r="O6">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999654</v>
       </c>
       <c r="P6">
-        <v>0.5204858233680697</v>
+        <v>1.003231186897163</v>
       </c>
       <c r="Q6">
-        <v>73.96052962832316</v>
+        <v>29.8865411520236</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999602</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>106.023380620861</v>
+        <v>150.0926278661255</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9664396662995494</v>
+        <v>1.000603791556319</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985455</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="P2">
-        <v>0.983957024688741</v>
+        <v>1.000696893557416</v>
       </c>
       <c r="Q2">
-        <v>29.97927806281039</v>
+        <v>29.97388235902682</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.2971681224474</v>
+        <v>150.0168762719799</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34248872739262</v>
+        <v>0.03026493094574379</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.50172456288334</v>
+        <v>0.3494693205706123</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276734</v>
+        <v>11.97826529986831</v>
       </c>
       <c r="I3">
-        <v>0.9610933812273456</v>
+        <v>-1164.101951979719</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909653</v>
+        <v>0.1153518593933089</v>
       </c>
       <c r="K3">
-        <v>2.416397540675817</v>
+        <v>2.416397540669457</v>
       </c>
       <c r="L3">
-        <v>0.115351859471143</v>
+        <v>0.1153518594871006</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675652</v>
       </c>
       <c r="N3">
-        <v>0.8379929791010423</v>
+        <v>1.003033608615607</v>
       </c>
       <c r="O3">
-        <v>1.000000000000763</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="P3">
-        <v>0.9390604356298996</v>
+        <v>1.003294214462149</v>
       </c>
       <c r="Q3">
-        <v>29.30782544019301</v>
+        <v>29.88277790576263</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>141.0916992016996</v>
+        <v>150.0913326455291</v>
       </c>
       <c r="T3">
-        <v>1.342488727392619</v>
+        <v>0.03026493094574379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8379929791137924</v>
+        <v>1.003033608615257</v>
       </c>
       <c r="O4">
-        <v>1.000000000000763</v>
+        <v>0.999999999999966</v>
       </c>
       <c r="P4">
-        <v>0.939060435626388</v>
+        <v>1.003294214461955</v>
       </c>
       <c r="Q4">
-        <v>29.30782544079996</v>
+        <v>29.88277790576382</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>141.091699202623</v>
+        <v>150.0913326455124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8379929791180424</v>
+        <v>1.00303360861514</v>
       </c>
       <c r="O5">
-        <v>1.000000000000763</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="P5">
-        <v>0.9390604356252173</v>
+        <v>1.00329421446189</v>
       </c>
       <c r="Q5">
-        <v>29.30782544100228</v>
+        <v>29.88277790576421</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>141.0916992029308</v>
+        <v>150.0913326455068</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8379929791180425</v>
+        <v>1.00303360861514</v>
       </c>
       <c r="O6">
-        <v>1.000000000000763</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="P6">
-        <v>0.9390604356252173</v>
+        <v>1.00329421446189</v>
       </c>
       <c r="Q6">
-        <v>29.30782544100228</v>
+        <v>29.88277790576421</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>141.0916992029308</v>
+        <v>150.0913326455068</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9664396662995494</v>
+        <v>1.000603791556319</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985455</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="P2">
-        <v>0.983957024688741</v>
+        <v>1.000696893557416</v>
       </c>
       <c r="Q2">
-        <v>29.97927806281039</v>
+        <v>29.97388235902682</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.2971681224474</v>
+        <v>150.0168762719799</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34248872739262</v>
+        <v>0.03026493094574379</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.50172456288334</v>
+        <v>0.3494693205706123</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276734</v>
+        <v>11.97826529986831</v>
       </c>
       <c r="I3">
-        <v>0.9610933812273456</v>
+        <v>-1164.101951979719</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909653</v>
+        <v>0.1153518593933089</v>
       </c>
       <c r="K3">
-        <v>2.416397540675817</v>
+        <v>2.416397540669457</v>
       </c>
       <c r="L3">
-        <v>0.115351859471143</v>
+        <v>0.1153518594871006</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675652</v>
       </c>
       <c r="N3">
-        <v>0.8379929791010423</v>
+        <v>1.003033608615607</v>
       </c>
       <c r="O3">
-        <v>1.000000000000763</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="P3">
-        <v>0.9390604356298996</v>
+        <v>1.003294214462149</v>
       </c>
       <c r="Q3">
-        <v>29.30782544019301</v>
+        <v>29.88277790576263</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>141.0916992016996</v>
+        <v>150.0913326455291</v>
       </c>
       <c r="T3">
-        <v>1.342488727392619</v>
+        <v>0.03026493094574379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8379929791137924</v>
+        <v>1.003033608615257</v>
       </c>
       <c r="O4">
-        <v>1.000000000000763</v>
+        <v>0.999999999999966</v>
       </c>
       <c r="P4">
-        <v>0.939060435626388</v>
+        <v>1.003294214461955</v>
       </c>
       <c r="Q4">
-        <v>29.30782544079996</v>
+        <v>29.88277790576382</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>141.091699202623</v>
+        <v>150.0913326455124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8379929791180424</v>
+        <v>1.00303360861514</v>
       </c>
       <c r="O5">
-        <v>1.000000000000763</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="P5">
-        <v>0.9390604356252173</v>
+        <v>1.00329421446189</v>
       </c>
       <c r="Q5">
-        <v>29.30782544100228</v>
+        <v>29.88277790576421</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>141.0916992029308</v>
+        <v>150.0913326455068</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8379929791180425</v>
+        <v>1.00303360861514</v>
       </c>
       <c r="O6">
-        <v>1.000000000000763</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="P6">
-        <v>0.9390604356252173</v>
+        <v>1.00329421446189</v>
       </c>
       <c r="Q6">
-        <v>29.30782544100228</v>
+        <v>29.88277790576421</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>141.0916992029308</v>
+        <v>150.0913326455068</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9576440453803187</v>
+        <v>1.046749197799929</v>
       </c>
       <c r="O2">
-        <v>0.8909260930503251</v>
+        <v>0.8909260930523265</v>
       </c>
       <c r="P2">
-        <v>0.9624797297592385</v>
+        <v>1.056822500261973</v>
       </c>
       <c r="Q2">
-        <v>28.08330579369251</v>
+        <v>25.18339092591991</v>
       </c>
       <c r="R2">
-        <v>-89.28600430298982</v>
+        <v>-89.28600430314931</v>
       </c>
       <c r="S2">
-        <v>152.7937175738177</v>
+        <v>155.070873656435</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.656253277127972</v>
+        <v>4.760378053994297</v>
       </c>
       <c r="D3">
-        <v>6.653846011351291</v>
+        <v>4.759525752008362</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>76.85979242688327</v>
+        <v>54.96811101835989</v>
       </c>
       <c r="G3">
-        <v>76.83199571599972</v>
+        <v>54.95826948273968</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306217</v>
+        <v>6.243271679683529</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794859</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063856</v>
+        <v>0.1077319054660729</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694746599</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131887</v>
+        <v>0.1077319054045952</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694657498</v>
       </c>
       <c r="N3">
-        <v>0.4152062737902779</v>
+        <v>0.9535731493509459</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.4152062738035635</v>
+        <v>0.9535731493514504</v>
       </c>
       <c r="Q3">
-        <v>-0.02683260972616749</v>
+        <v>-0.002958649652334485</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9731673889168</v>
+        <v>179.9970413503458</v>
       </c>
       <c r="T3">
-        <v>9.302174371643162</v>
+        <v>0.01638225943479227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4152062737865292</v>
+        <v>0.9535731493241303</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4152062738533794</v>
+        <v>0.9535731493781797</v>
       </c>
       <c r="Q4">
-        <v>-0.02683260285948803</v>
+        <v>-0.002958648237337584</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9731673892751</v>
+        <v>179.9970413489255</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4152062737852796</v>
+        <v>0.9535731493151919</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.4152062738699845</v>
+        <v>0.9535731493870895</v>
       </c>
       <c r="Q5">
-        <v>-0.02683260057060455</v>
+        <v>-0.002958647765669031</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9731673893945</v>
+        <v>179.9970413484521</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4152062737852796</v>
+        <v>0.9535731493151919</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.4152062738699847</v>
+        <v>0.9535731493870894</v>
       </c>
       <c r="Q6">
-        <v>-0.02683260057062082</v>
+        <v>-0.002958647765683293</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9731673893945</v>
+        <v>179.9970413484521</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9576440453803187</v>
+        <v>1.046749197799929</v>
       </c>
       <c r="O2">
-        <v>0.8909260930503251</v>
+        <v>0.8909260930523265</v>
       </c>
       <c r="P2">
-        <v>0.9624797297592385</v>
+        <v>1.056822500261973</v>
       </c>
       <c r="Q2">
-        <v>28.08330579369251</v>
+        <v>25.18339092591991</v>
       </c>
       <c r="R2">
-        <v>-89.28600430298982</v>
+        <v>-89.28600430314931</v>
       </c>
       <c r="S2">
-        <v>152.7937175738177</v>
+        <v>155.070873656435</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.656253277127972</v>
+        <v>4.760378053994297</v>
       </c>
       <c r="D3">
-        <v>6.653846011351291</v>
+        <v>4.759525752008362</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>76.85979242688327</v>
+        <v>54.96811101835989</v>
       </c>
       <c r="G3">
-        <v>76.83199571599972</v>
+        <v>54.95826948273968</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306217</v>
+        <v>6.243271679683529</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794859</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063856</v>
+        <v>0.1077319054660729</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694746599</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131887</v>
+        <v>0.1077319054045952</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694657498</v>
       </c>
       <c r="N3">
-        <v>0.4152062737902779</v>
+        <v>0.9535731493509459</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.4152062738035635</v>
+        <v>0.9535731493514504</v>
       </c>
       <c r="Q3">
-        <v>-0.02683260972616749</v>
+        <v>-0.002958649652334485</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9731673889168</v>
+        <v>179.9970413503458</v>
       </c>
       <c r="T3">
-        <v>9.302174371643162</v>
+        <v>0.01638225943479227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4152062737865292</v>
+        <v>0.9535731493241303</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4152062738533794</v>
+        <v>0.9535731493781797</v>
       </c>
       <c r="Q4">
-        <v>-0.02683260285948803</v>
+        <v>-0.002958648237337584</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9731673892751</v>
+        <v>179.9970413489255</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4152062737852796</v>
+        <v>0.9535731493151919</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.4152062738699845</v>
+        <v>0.9535731493870895</v>
       </c>
       <c r="Q5">
-        <v>-0.02683260057060455</v>
+        <v>-0.002958647765669031</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9731673893945</v>
+        <v>179.9970413484521</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4152062737852796</v>
+        <v>0.9535731493151919</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.4152062738699847</v>
+        <v>0.9535731493870894</v>
       </c>
       <c r="Q6">
-        <v>-0.02683260057062082</v>
+        <v>-0.002958647765683293</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9731673893945</v>
+        <v>179.9970413484521</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082842006937333</v>
+        <v>1.100122697748313</v>
       </c>
       <c r="O2">
-        <v>1.052967690033198</v>
+        <v>1.052967690033128</v>
       </c>
       <c r="P2">
-        <v>1.068826161516823</v>
+        <v>1.076934289217312</v>
       </c>
       <c r="Q2">
-        <v>28.51945235725778</v>
+        <v>28.58083787466778</v>
       </c>
       <c r="R2">
-        <v>-91.44286082237976</v>
+        <v>-91.44286082238177</v>
       </c>
       <c r="S2">
-        <v>149.925064629075</v>
+        <v>150.742429666414</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.500483089525901</v>
+        <v>1.238502603683949</v>
       </c>
       <c r="D3">
-        <v>1.418459205771826</v>
+        <v>1.228897157604889</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.32608631304521</v>
+        <v>14.3009962325796</v>
       </c>
       <c r="G3">
-        <v>16.37895608573733</v>
+        <v>14.19008209499098</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306217</v>
+        <v>6.243271679683529</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794859</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063856</v>
+        <v>0.1077319054660729</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694746599</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131887</v>
+        <v>0.1077319054045952</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694657498</v>
       </c>
       <c r="N3">
-        <v>1.027154900637619</v>
+        <v>1.11565658894401</v>
       </c>
       <c r="O3">
-        <v>0.8723446855816874</v>
+        <v>0.8723446855796029</v>
       </c>
       <c r="P3">
-        <v>0.9370212414505737</v>
+        <v>0.976948508891653</v>
       </c>
       <c r="Q3">
-        <v>21.5116854508782</v>
+        <v>22.63788338825632</v>
       </c>
       <c r="R3">
-        <v>-100.0510163395943</v>
+        <v>-100.0510163396287</v>
       </c>
       <c r="S3">
-        <v>149.0209319720996</v>
+        <v>153.9172305111057</v>
       </c>
       <c r="T3">
-        <v>1.561752232938569</v>
+        <v>0.01648765969194369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.027154900632324</v>
+        <v>1.115656588936089</v>
       </c>
       <c r="O4">
-        <v>0.872344685581385</v>
+        <v>0.8723446855793004</v>
       </c>
       <c r="P4">
-        <v>0.9370212414566437</v>
+        <v>0.9769485089004792</v>
       </c>
       <c r="Q4">
-        <v>21.51168545143182</v>
+        <v>22.63788338850507</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383796</v>
+        <v>-100.051016338414</v>
       </c>
       <c r="S4">
-        <v>149.0209319726335</v>
+        <v>153.9172305112605</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.027154900630559</v>
+        <v>1.115656588933448</v>
       </c>
       <c r="O5">
-        <v>0.8723446855812842</v>
+        <v>0.8723446855791999</v>
       </c>
       <c r="P5">
-        <v>0.9370212414586671</v>
+        <v>0.9769485089034211</v>
       </c>
       <c r="Q5">
-        <v>21.51168545161635</v>
+        <v>22.63788338858798</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379746</v>
+        <v>-100.051016338009</v>
       </c>
       <c r="S5">
-        <v>149.0209319728115</v>
+        <v>153.9172305113121</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.027154900630559</v>
+        <v>1.115656588933448</v>
       </c>
       <c r="O6">
-        <v>0.8723446855812842</v>
+        <v>0.8723446855791998</v>
       </c>
       <c r="P6">
-        <v>0.9370212414586669</v>
+        <v>0.9769485089034211</v>
       </c>
       <c r="Q6">
-        <v>21.51168545161635</v>
+        <v>22.63788338858798</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379746</v>
+        <v>-100.051016338009</v>
       </c>
       <c r="S6">
-        <v>149.0209319728115</v>
+        <v>153.9172305113121</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082842006937333</v>
+        <v>1.100122697748313</v>
       </c>
       <c r="O2">
-        <v>1.052967690033198</v>
+        <v>1.052967690033128</v>
       </c>
       <c r="P2">
-        <v>1.068826161516823</v>
+        <v>1.076934289217312</v>
       </c>
       <c r="Q2">
-        <v>28.51945235725778</v>
+        <v>28.58083787466778</v>
       </c>
       <c r="R2">
-        <v>-91.44286082237976</v>
+        <v>-91.44286082238177</v>
       </c>
       <c r="S2">
-        <v>149.925064629075</v>
+        <v>150.742429666414</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.500483089525901</v>
+        <v>1.238502603683949</v>
       </c>
       <c r="D3">
-        <v>1.418459205771826</v>
+        <v>1.228897157604889</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.32608631304521</v>
+        <v>14.3009962325796</v>
       </c>
       <c r="G3">
-        <v>16.37895608573733</v>
+        <v>14.19008209499098</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306217</v>
+        <v>6.243271679683529</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794859</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063856</v>
+        <v>0.1077319054660729</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694746599</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131887</v>
+        <v>0.1077319054045952</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694657498</v>
       </c>
       <c r="N3">
-        <v>1.027154900637619</v>
+        <v>1.11565658894401</v>
       </c>
       <c r="O3">
-        <v>0.8723446855816874</v>
+        <v>0.8723446855796029</v>
       </c>
       <c r="P3">
-        <v>0.9370212414505737</v>
+        <v>0.976948508891653</v>
       </c>
       <c r="Q3">
-        <v>21.5116854508782</v>
+        <v>22.63788338825632</v>
       </c>
       <c r="R3">
-        <v>-100.0510163395943</v>
+        <v>-100.0510163396287</v>
       </c>
       <c r="S3">
-        <v>149.0209319720996</v>
+        <v>153.9172305111057</v>
       </c>
       <c r="T3">
-        <v>1.561752232938569</v>
+        <v>0.01648765969194369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.027154900632324</v>
+        <v>1.115656588936089</v>
       </c>
       <c r="O4">
-        <v>0.872344685581385</v>
+        <v>0.8723446855793004</v>
       </c>
       <c r="P4">
-        <v>0.9370212414566437</v>
+        <v>0.9769485089004792</v>
       </c>
       <c r="Q4">
-        <v>21.51168545143182</v>
+        <v>22.63788338850507</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383796</v>
+        <v>-100.051016338414</v>
       </c>
       <c r="S4">
-        <v>149.0209319726335</v>
+        <v>153.9172305112605</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.027154900630559</v>
+        <v>1.115656588933448</v>
       </c>
       <c r="O5">
-        <v>0.8723446855812842</v>
+        <v>0.8723446855791999</v>
       </c>
       <c r="P5">
-        <v>0.9370212414586671</v>
+        <v>0.9769485089034211</v>
       </c>
       <c r="Q5">
-        <v>21.51168545161635</v>
+        <v>22.63788338858798</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379746</v>
+        <v>-100.051016338009</v>
       </c>
       <c r="S5">
-        <v>149.0209319728115</v>
+        <v>153.9172305113121</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.027154900630559</v>
+        <v>1.115656588933448</v>
       </c>
       <c r="O6">
-        <v>0.8723446855812842</v>
+        <v>0.8723446855791998</v>
       </c>
       <c r="P6">
-        <v>0.9370212414586669</v>
+        <v>0.9769485089034211</v>
       </c>
       <c r="Q6">
-        <v>21.51168545161635</v>
+        <v>22.63788338858798</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379746</v>
+        <v>-100.051016338009</v>
       </c>
       <c r="S6">
-        <v>149.0209319728115</v>
+        <v>153.9172305113121</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8606854501649317</v>
+        <v>0.9478826975233141</v>
       </c>
       <c r="O2">
-        <v>0.7936674232736544</v>
+        <v>0.7936674232738877</v>
       </c>
       <c r="P2">
-        <v>0.8655477807075265</v>
+        <v>0.9576604093598211</v>
       </c>
       <c r="Q2">
-        <v>27.83507620674229</v>
+        <v>24.7457828731693</v>
       </c>
       <c r="R2">
-        <v>-89.22492623911637</v>
+        <v>-89.22492623896841</v>
       </c>
       <c r="S2">
-        <v>153.091631694908</v>
+        <v>155.5208707060543</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.746262529807016</v>
+        <v>4.134123318576534</v>
       </c>
       <c r="D3">
-        <v>5.740649395966591</v>
+        <v>4.133259228785452</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>66.35212436836682</v>
+        <v>47.73674421686542</v>
       </c>
       <c r="G3">
-        <v>66.28730948169149</v>
+        <v>47.72676656739571</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276101</v>
+        <v>11.97826529986876</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275487</v>
+        <v>-1164.101951979717</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949912</v>
+        <v>0.1153518595378999</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540804455</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710855</v>
+        <v>0.115351859463364</v>
       </c>
       <c r="M3">
-        <v>2.416397540675743</v>
+        <v>2.416397540689472</v>
       </c>
       <c r="N3">
-        <v>0.3837112302340931</v>
+        <v>0.8669246292453846</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.3837112302244142</v>
+        <v>0.8669246292455234</v>
       </c>
       <c r="Q3">
-        <v>-0.07043074204296705</v>
+        <v>-0.003453850514294031</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9295692571359</v>
+        <v>179.9965461494195</v>
       </c>
       <c r="T3">
-        <v>7.974947271528125</v>
+        <v>0.01489351920219084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.3837112302493809</v>
+        <v>0.8669246292209686</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.3837112302884775</v>
+        <v>0.8669246292697869</v>
       </c>
       <c r="Q4">
-        <v>-0.07043073237928588</v>
+        <v>-0.00345384779510599</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9295692545094</v>
+        <v>179.9965461466951</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3837112302544766</v>
+        <v>0.8669246292128299</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3837112303098318</v>
+        <v>0.8669246292778748</v>
       </c>
       <c r="Q5">
-        <v>-0.07043072915804556</v>
+        <v>-0.003453846888719743</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9295692536339</v>
+        <v>179.996546145787</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3837112302544766</v>
+        <v>0.8669246292128299</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.3837112303098318</v>
+        <v>0.8669246292778746</v>
       </c>
       <c r="Q6">
-        <v>-0.07043072915803268</v>
+        <v>-0.003453846888709483</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9295692536339</v>
+        <v>179.996546145787</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8606854501649317</v>
+        <v>0.9478826975233141</v>
       </c>
       <c r="O2">
-        <v>0.7936674232736544</v>
+        <v>0.7936674232738877</v>
       </c>
       <c r="P2">
-        <v>0.8655477807075265</v>
+        <v>0.9576604093598211</v>
       </c>
       <c r="Q2">
-        <v>27.83507620674229</v>
+        <v>24.7457828731693</v>
       </c>
       <c r="R2">
-        <v>-89.22492623911637</v>
+        <v>-89.22492623896841</v>
       </c>
       <c r="S2">
-        <v>153.091631694908</v>
+        <v>155.5208707060543</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.746262529807016</v>
+        <v>4.134123318576534</v>
       </c>
       <c r="D3">
-        <v>5.740649395966591</v>
+        <v>4.133259228785452</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>66.35212436836682</v>
+        <v>47.73674421686542</v>
       </c>
       <c r="G3">
-        <v>66.28730948169149</v>
+        <v>47.72676656739571</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276101</v>
+        <v>11.97826529986876</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275487</v>
+        <v>-1164.101951979717</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949912</v>
+        <v>0.1153518595378999</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540804455</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710855</v>
+        <v>0.115351859463364</v>
       </c>
       <c r="M3">
-        <v>2.416397540675743</v>
+        <v>2.416397540689472</v>
       </c>
       <c r="N3">
-        <v>0.3837112302340931</v>
+        <v>0.8669246292453846</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.3837112302244142</v>
+        <v>0.8669246292455234</v>
       </c>
       <c r="Q3">
-        <v>-0.07043074204296705</v>
+        <v>-0.003453850514294031</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9295692571359</v>
+        <v>179.9965461494195</v>
       </c>
       <c r="T3">
-        <v>7.974947271528125</v>
+        <v>0.01489351920219084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.3837112302493809</v>
+        <v>0.8669246292209686</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.3837112302884775</v>
+        <v>0.8669246292697869</v>
       </c>
       <c r="Q4">
-        <v>-0.07043073237928588</v>
+        <v>-0.00345384779510599</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9295692545094</v>
+        <v>179.9965461466951</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3837112302544766</v>
+        <v>0.8669246292128299</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3837112303098318</v>
+        <v>0.8669246292778748</v>
       </c>
       <c r="Q5">
-        <v>-0.07043072915804556</v>
+        <v>-0.003453846888719743</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9295692536339</v>
+        <v>179.996546145787</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3837112302544766</v>
+        <v>0.8669246292128299</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.3837112303098318</v>
+        <v>0.8669246292778746</v>
       </c>
       <c r="Q6">
-        <v>-0.07043072915803268</v>
+        <v>-0.003453846888709483</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9295692536339</v>
+        <v>179.996546145787</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9822909031186212</v>
+        <v>0.9999982391045846</v>
       </c>
       <c r="O2">
-        <v>0.9517844802521985</v>
+        <v>0.9517844802528806</v>
       </c>
       <c r="P2">
-        <v>0.9681117677359311</v>
+        <v>0.9765219259295967</v>
       </c>
       <c r="Q2">
-        <v>28.3371550984768</v>
+        <v>28.40379544730068</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281488</v>
+        <v>-91.61401138281003</v>
       </c>
       <c r="S2">
-        <v>149.9249572061302</v>
+        <v>150.8457246960049</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.351101123881146</v>
+        <v>1.114324022896375</v>
       </c>
       <c r="D3">
-        <v>1.276570502575969</v>
+        <v>1.105606435076175</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.60117195150371</v>
+        <v>12.86710549167378</v>
       </c>
       <c r="G3">
-        <v>14.74056646603544</v>
+        <v>12.76644345818024</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276101</v>
+        <v>11.97826529986876</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275487</v>
+        <v>-1164.101951979717</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949912</v>
+        <v>0.1153518595378999</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540804455</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710855</v>
+        <v>0.115351859463364</v>
       </c>
       <c r="M3">
-        <v>2.416397540675743</v>
+        <v>2.416397540689472</v>
       </c>
       <c r="N3">
-        <v>0.930540500557051</v>
+        <v>1.0141014464036</v>
       </c>
       <c r="O3">
-        <v>0.784852101413924</v>
+        <v>0.7848521014138589</v>
       </c>
       <c r="P3">
-        <v>0.8463562973200961</v>
+        <v>0.88472029000787</v>
       </c>
       <c r="Q3">
-        <v>21.20494723733821</v>
+        <v>22.36766656570725</v>
       </c>
       <c r="R3">
-        <v>-100.4045966787053</v>
+        <v>-100.4045966786908</v>
       </c>
       <c r="S3">
-        <v>149.0426517080645</v>
+        <v>154.1299087503605</v>
       </c>
       <c r="T3">
-        <v>1.407931255884657</v>
+        <v>0.01498885780116577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9305405005543612</v>
+        <v>1.014101446395244</v>
       </c>
       <c r="O4">
-        <v>0.7848521014215003</v>
+        <v>0.7848521014214351</v>
       </c>
       <c r="P4">
-        <v>0.8463562973319266</v>
+        <v>0.8847202900206571</v>
       </c>
       <c r="Q4">
-        <v>21.20494723828659</v>
+        <v>22.36766656626219</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769133</v>
+        <v>-100.4045966768988</v>
       </c>
       <c r="S4">
-        <v>149.0426517086635</v>
+        <v>154.1299087503316</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9305405005534646</v>
+        <v>1.014101446392459</v>
       </c>
       <c r="O5">
-        <v>0.7848521014240256</v>
+        <v>0.7848521014239604</v>
       </c>
       <c r="P5">
-        <v>0.8463562973358701</v>
+        <v>0.8847202900249194</v>
       </c>
       <c r="Q5">
-        <v>21.20494723860272</v>
+        <v>22.36766656644717</v>
       </c>
       <c r="R5">
-        <v>-100.404596676316</v>
+        <v>-100.4045966763015</v>
       </c>
       <c r="S5">
-        <v>149.0426517088632</v>
+        <v>154.1299087503219</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9305405005534646</v>
+        <v>1.014101446392459</v>
       </c>
       <c r="O6">
-        <v>0.7848521014240256</v>
+        <v>0.7848521014239604</v>
       </c>
       <c r="P6">
-        <v>0.8463562973358701</v>
+        <v>0.8847202900249193</v>
       </c>
       <c r="Q6">
-        <v>21.20494723860271</v>
+        <v>22.36766656644717</v>
       </c>
       <c r="R6">
-        <v>-100.404596676316</v>
+        <v>-100.4045966763015</v>
       </c>
       <c r="S6">
-        <v>149.0426517088632</v>
+        <v>154.1299087503219</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9822909031186212</v>
+        <v>0.9999982391045846</v>
       </c>
       <c r="O2">
-        <v>0.9517844802521985</v>
+        <v>0.9517844802528806</v>
       </c>
       <c r="P2">
-        <v>0.9681117677359311</v>
+        <v>0.9765219259295967</v>
       </c>
       <c r="Q2">
-        <v>28.3371550984768</v>
+        <v>28.40379544730068</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281488</v>
+        <v>-91.61401138281003</v>
       </c>
       <c r="S2">
-        <v>149.9249572061302</v>
+        <v>150.8457246960049</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.351101123881146</v>
+        <v>1.114324022896375</v>
       </c>
       <c r="D3">
-        <v>1.276570502575969</v>
+        <v>1.105606435076175</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.60117195150371</v>
+        <v>12.86710549167378</v>
       </c>
       <c r="G3">
-        <v>14.74056646603544</v>
+        <v>12.76644345818024</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276101</v>
+        <v>11.97826529986876</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275487</v>
+        <v>-1164.101951979717</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949912</v>
+        <v>0.1153518595378999</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540804455</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710855</v>
+        <v>0.115351859463364</v>
       </c>
       <c r="M3">
-        <v>2.416397540675743</v>
+        <v>2.416397540689472</v>
       </c>
       <c r="N3">
-        <v>0.930540500557051</v>
+        <v>1.0141014464036</v>
       </c>
       <c r="O3">
-        <v>0.784852101413924</v>
+        <v>0.7848521014138589</v>
       </c>
       <c r="P3">
-        <v>0.8463562973200961</v>
+        <v>0.88472029000787</v>
       </c>
       <c r="Q3">
-        <v>21.20494723733821</v>
+        <v>22.36766656570725</v>
       </c>
       <c r="R3">
-        <v>-100.4045966787053</v>
+        <v>-100.4045966786908</v>
       </c>
       <c r="S3">
-        <v>149.0426517080645</v>
+        <v>154.1299087503605</v>
       </c>
       <c r="T3">
-        <v>1.407931255884657</v>
+        <v>0.01498885780116577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9305405005543612</v>
+        <v>1.014101446395244</v>
       </c>
       <c r="O4">
-        <v>0.7848521014215003</v>
+        <v>0.7848521014214351</v>
       </c>
       <c r="P4">
-        <v>0.8463562973319266</v>
+        <v>0.8847202900206571</v>
       </c>
       <c r="Q4">
-        <v>21.20494723828659</v>
+        <v>22.36766656626219</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769133</v>
+        <v>-100.4045966768988</v>
       </c>
       <c r="S4">
-        <v>149.0426517086635</v>
+        <v>154.1299087503316</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9305405005534646</v>
+        <v>1.014101446392459</v>
       </c>
       <c r="O5">
-        <v>0.7848521014240256</v>
+        <v>0.7848521014239604</v>
       </c>
       <c r="P5">
-        <v>0.8463562973358701</v>
+        <v>0.8847202900249194</v>
       </c>
       <c r="Q5">
-        <v>21.20494723860272</v>
+        <v>22.36766656644717</v>
       </c>
       <c r="R5">
-        <v>-100.404596676316</v>
+        <v>-100.4045966763015</v>
       </c>
       <c r="S5">
-        <v>149.0426517088632</v>
+        <v>154.1299087503219</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9305405005534646</v>
+        <v>1.014101446392459</v>
       </c>
       <c r="O6">
-        <v>0.7848521014240256</v>
+        <v>0.7848521014239604</v>
       </c>
       <c r="P6">
-        <v>0.8463562973358701</v>
+        <v>0.8847202900249193</v>
       </c>
       <c r="Q6">
-        <v>21.20494723860271</v>
+        <v>22.36766656644717</v>
       </c>
       <c r="R6">
-        <v>-100.404596676316</v>
+        <v>-100.4045966763015</v>
       </c>
       <c r="S6">
-        <v>149.0426517088632</v>
+        <v>154.1299087503219</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.04659506804995</v>
+        <v>1.046595068050001</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523819</v>
+        <v>0.8909260930523315</v>
       </c>
       <c r="P2">
-        <v>1.056652021165216</v>
+        <v>1.056652021165259</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033979</v>
+        <v>25.18850204033663</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314906</v>
+        <v>-89.28600430314988</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071883015</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.75994487424888</v>
+        <v>4.759944874248627</v>
       </c>
       <c r="D3">
-        <v>4.75994487424888</v>
+        <v>4.759944874248627</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950741</v>
+        <v>54.96310908950449</v>
       </c>
       <c r="G3">
-        <v>54.96310908950741</v>
+        <v>54.96310908950449</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306217</v>
+        <v>6.243271679683529</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794859</v>
+        <v>-1164.136656714339</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063856</v>
+        <v>0.1077319054660729</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694746599</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131887</v>
+        <v>0.1077319054045952</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694657498</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020817</v>
+        <v>0.9526279648021428</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.952627964802519</v>
+        <v>0.9526279648025839</v>
       </c>
       <c r="Q3">
-        <v>-4.004914026730602E-12</v>
+        <v>-4.46154022593884E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999901</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753104</v>
+        <v>0.9526279647753716</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.95262796482929</v>
+        <v>0.9526279648293553</v>
       </c>
       <c r="Q4">
-        <v>1.415114289078602E-09</v>
+        <v>1.414662753011575E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.9999999985762</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663868</v>
+        <v>0.9526279647664478</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382138</v>
+        <v>0.9526279648382792</v>
       </c>
       <c r="Q5">
-        <v>1.888149601269896E-09</v>
+        <v>1.887703269660798E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981034</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663868</v>
+        <v>0.9526279647664477</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382138</v>
+        <v>0.9526279648382791</v>
       </c>
       <c r="Q6">
-        <v>1.888142666587713E-09</v>
+        <v>1.887694954331136E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
   </sheetData>
